--- a/generated_dataframe/GC1 6M/forest_All_long_short_perf_output_GC1_6M_20250223-2259.xlsx
+++ b/generated_dataframe/GC1 6M/forest_All_long_short_perf_output_GC1_6M_20250223-2259.xlsx
@@ -1,37 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredchoi/Desktop/Imperial/Course/Winter Term/Big Data in Finance/HW Assignment/0_data_collection/generated_dataframe/GC1 6M/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84ACFD4-2F98-1841-82FA-E086C8BB46A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1996" sheetId="2" r:id="rId2"/>
+    <sheet name="2000" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Transaction Cost</t>
+  </si>
+  <si>
+    <t>Final Value Per Dollar Invested</t>
+  </si>
+  <si>
+    <t>Annualized Return</t>
+  </si>
+  <si>
+    <t>6M Sharpe Ratio</t>
+  </si>
+  <si>
+    <t>Max Drawdown</t>
+  </si>
+  <si>
+    <t>Win Rate</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0bp</t>
+  </si>
+  <si>
+    <t>10bp</t>
+  </si>
+  <si>
+    <t>Buy &amp; Hold</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Forest_All_F_LongShort</t>
+  </si>
+  <si>
+    <t>Forest_All_F_LongOnly</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Forest_Sel_F_LongOnly</t>
+  </si>
+  <si>
+    <t>Forest_Sel_F_LongShort</t>
+  </si>
+  <si>
+    <t>Lasso_LongShort</t>
+  </si>
+  <si>
+    <t>Lasso_LongOnly</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +128,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,157 +464,825 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Transaction Cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Final Value Per Dollar Invested</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Annualized Return</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>6M Sharpe Ratio</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Max Drawdown</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Win Rate</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0bp</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>19.27575765552314</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.1090641549059816</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>0.10906415490598161</v>
+      </c>
+      <c r="F2">
         <v>1.570540827093347</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0.08576584115292618</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7317784256559767</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2205658187125107</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="G2">
+        <v>-8.5765841152926181E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.73177842565597673</v>
+      </c>
+      <c r="I2">
+        <v>0.22056581871251069</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10bp</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>13.67881418913344</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.09583491921172271</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>9.5834919211722713E-2</v>
+      </c>
+      <c r="F3">
         <v>1.3141604655657</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.09123482275426928</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7317784256559767</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2205658187125107</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="G3">
+        <v>-9.1234822754269279E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.73177842565597673</v>
+      </c>
+      <c r="I3">
+        <v>0.22056581871251069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Buy &amp; Hold</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>6.252254476904081</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.06622700649076374</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.2355378210803468</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>6.2522544769040813</v>
+      </c>
+      <c r="E4">
+        <v>6.622700649076374E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.23553782108034679</v>
+      </c>
+      <c r="G4">
         <v>-0.4204340881204448</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424F699E-35BD-114C-A99E-109E29BF5FF2}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="249" workbookViewId="0">
+      <selection sqref="A1:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>6.2522544769040813</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.622700649076374E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.23553782108034679</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-0.4204340881204448</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>19.27575765552314</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.10906415490598161</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.570540827093347</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-8.5765841152926181E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.73177842565597673</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.22056581871251069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13.67881418913344</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9.5834919211722713E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.3141604655657</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-9.1234822754269279E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.73177842565597673</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.22056581871251069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>13.930392829197221</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9.6533847422124675E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.442487185008958</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-0.1135147377674602</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.73177842565597673</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.22056581871251069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9.8855390536426544</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.345407683346151E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.167089482656779</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-0.15486235947643831</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.73177842565597673</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.22056581871251069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>12.504980029451509</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9.2400556283682045E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.2031631524128481</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-0.27307054248986862</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.69679300291545188</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.2176730841010337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8.8740116636961037</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.9370088778543568E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.95963000568547729</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.30436197883194438</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.69679300291545188</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.2176730841010337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11.30200471788925</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.854174792757763E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.31522099924236</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-0.1275575634766373</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.69679300291545188</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.2176730841010337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>8.020334415047973</v>
+      </c>
+      <c r="D10" s="7">
+        <v>7.5557309396521388E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.033031703943609</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-0.19673873927450791</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.69679300291545188</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.2176730841010337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6.1907969998743004</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.5858586558414256E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.68962238023163602</v>
+      </c>
+      <c r="F11" s="7">
+        <v>-0.24966298716066501</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-0.10339880394241829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4.3932261111230986</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.3144719289368592E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.45788171916733811</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.30750307331120369</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-0.10339880394241829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>8.098066233592137</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7.5920307371629248E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.93732001471258464</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-0.28235584304758587</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-0.10339880394241829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5.7466972391024402</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6.3086421007620519E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.68616271987389887</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.33767578482479632</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.61224489795918369</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-0.10339880394241829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E59413-66F8-4D4C-9A1C-2978998C51A2}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>8.3787981689475508</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9.0317932703256387E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.4070766546429288</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-0.4204340881204448</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13.385492779561041</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.1112945755447716</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.630683014083292</v>
+      </c>
+      <c r="F3" s="7">
+        <v>-8.5765841152926139E-2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.72542372881355932</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.15431819448194689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9.9659221881800271</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9.8038734752694534E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.385116577904745</v>
+      </c>
+      <c r="F4" s="7">
+        <v>-9.123482275426946E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.72542372881355932</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.15431819448194689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>11.128926433644059</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.10297988095359691</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.569873455254587</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-0.11351473776745979</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.72542372881355932</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.15431819448194689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8.2858372644323293</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.9823220226068701E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.310757666474563</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-0.1548623594764382</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.72542372881355932</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.15431819448194689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10.90695511072663</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.10207631470795241</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.405131302279446</v>
+      </c>
+      <c r="F7" s="7">
+        <v>-0.21198516729252281</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.71525423728813564</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.1496976594858441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8.1205726030087106</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8.8930431978050617E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.170740098075199</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.24298519629996729</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.71525423728813564</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.1496976594858441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10.160490880181261</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.8902703027894168E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.470288141963831</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-0.1495852114505517</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.71525423728813564</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.1496976594858441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7.5648064044542513</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8.579467604937685E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.2154727581140179</v>
+      </c>
+      <c r="F10" s="7">
+        <v>-0.21496820748107029</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.71525423728813564</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.1496976594858441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>